--- a/core/utils/cadenderecoUMUARAMA.xlsx
+++ b/core/utils/cadenderecoUMUARAMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD39F2CF-6B4D-45E4-BCB0-0CBDBEA97EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE40CBB8-02B5-4235-9301-9493588C4D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="236">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -288,18 +288,9 @@
     <t>ESCOLA MUNICIPAL DR. ÂNGELO MOREIRA DA FONSECA</t>
   </si>
   <si>
-    <t>2896</t>
-  </si>
-  <si>
-    <t>RESERVA - SME</t>
-  </si>
-  <si>
     <t>2895</t>
   </si>
   <si>
-    <t>SECRETARIA MUNICIPAL DE UMUARAMA</t>
-  </si>
-  <si>
     <t>2894</t>
   </si>
   <si>
@@ -469,6 +460,279 @@
   </si>
   <si>
     <t>3906-1072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA VICENTE FERRAZ DE CAMPOS </t>
+  </si>
+  <si>
+    <t>PARQUE INDUSTRIAL I</t>
+  </si>
+  <si>
+    <t>3906-1080</t>
+  </si>
+  <si>
+    <t>3906-1084</t>
+  </si>
+  <si>
+    <t>RUA AMADEU BOGGIO MÉRIO</t>
+  </si>
+  <si>
+    <t>PARQUE DANIELLE</t>
+  </si>
+  <si>
+    <t>3906-1079</t>
+  </si>
+  <si>
+    <t>RUA SANTO ANTÔNIO</t>
+  </si>
+  <si>
+    <t>JARDIM SÃO CRISTÓVÃO</t>
+  </si>
+  <si>
+    <t>3906-1074</t>
+  </si>
+  <si>
+    <t>RUA BENVENUTO GAZZI</t>
+  </si>
+  <si>
+    <t>JARDIM ALPHAVILLE</t>
+  </si>
+  <si>
+    <t>3906-1086</t>
+  </si>
+  <si>
+    <t>RUA ANÍSIO FRANCISCO SILVA</t>
+  </si>
+  <si>
+    <t>CONJUNTO PORTO BELO</t>
+  </si>
+  <si>
+    <t>3624-6139</t>
+  </si>
+  <si>
+    <t>RUA CANANÉIA</t>
+  </si>
+  <si>
+    <t>JD. TROPICAL (PRAÇA 7 DE SETEMBRO)</t>
+  </si>
+  <si>
+    <t>3668-1188</t>
+  </si>
+  <si>
+    <t>RUA BRASÍLIA</t>
+  </si>
+  <si>
+    <t>DIST. DE SERRA DOS DOURADOS</t>
+  </si>
+  <si>
+    <t>3906-1078</t>
+  </si>
+  <si>
+    <t>RUA ANHUMAI</t>
+  </si>
+  <si>
+    <t>ZONA VI</t>
+  </si>
+  <si>
+    <t>3906-1073</t>
+  </si>
+  <si>
+    <t>RUA FLOR DE IPÊ</t>
+  </si>
+  <si>
+    <t>PARQUE JABUTICABEIRA</t>
+  </si>
+  <si>
+    <t>3623-1388</t>
+  </si>
+  <si>
+    <t>AVENIDA GOIÂNIA</t>
+  </si>
+  <si>
+    <t>PRAÇA 7 DE SETEMBRO</t>
+  </si>
+  <si>
+    <t>3906-1098</t>
+  </si>
+  <si>
+    <t>RUA ALFREDO BERNARDO</t>
+  </si>
+  <si>
+    <t>CONJUNTO 28 DE OUTUBRO</t>
+  </si>
+  <si>
+    <t>3906-1154</t>
+  </si>
+  <si>
+    <t>RUA NEREU RAMOS</t>
+  </si>
+  <si>
+    <t>JARDIM PANORAMA</t>
+  </si>
+  <si>
+    <t>3622-1628</t>
+  </si>
+  <si>
+    <t>CONJ. OURO BRANCO</t>
+  </si>
+  <si>
+    <t>3624-5685</t>
+  </si>
+  <si>
+    <t>RUA LONDRINA</t>
+  </si>
+  <si>
+    <t>DISTRITO LOVAT</t>
+  </si>
+  <si>
+    <t>3906-1071</t>
+  </si>
+  <si>
+    <t>AV. RIO GRANDE DO SUL</t>
+  </si>
+  <si>
+    <t>JARDIM BIRIGUI</t>
+  </si>
+  <si>
+    <t>3906-1094</t>
+  </si>
+  <si>
+    <t>RUA MARIA IGNÁCIA</t>
+  </si>
+  <si>
+    <t>PARQUE SAN REMO</t>
+  </si>
+  <si>
+    <t>3624-7672</t>
+  </si>
+  <si>
+    <t>3906-1113</t>
+  </si>
+  <si>
+    <t>RUA FRANCISCO XAVIER</t>
+  </si>
+  <si>
+    <t>PARQUE VITÓRIA RÉGIA</t>
+  </si>
+  <si>
+    <t>3622-5131</t>
+  </si>
+  <si>
+    <t>RUA DON AFONSO</t>
+  </si>
+  <si>
+    <t>PARQUE DON BOSCO</t>
+  </si>
+  <si>
+    <t>3624-1219</t>
+  </si>
+  <si>
+    <t>RUA F</t>
+  </si>
+  <si>
+    <t>PARQUE VERDE VALE</t>
+  </si>
+  <si>
+    <t>3668-1389</t>
+  </si>
+  <si>
+    <t>AVENIDA CENTRAL</t>
+  </si>
+  <si>
+    <t>DIST. SERRA DOS DOURADOS</t>
+  </si>
+  <si>
+    <t>3906-1095</t>
+  </si>
+  <si>
+    <t>AVENIDA DOS XETAS</t>
+  </si>
+  <si>
+    <t>PARQUE DON PEDRO I</t>
+  </si>
+  <si>
+    <t>3624-6704</t>
+  </si>
+  <si>
+    <t>RUA BARARUBA</t>
+  </si>
+  <si>
+    <t>PRAÇA TAMOYO</t>
+  </si>
+  <si>
+    <t>3622-7941</t>
+  </si>
+  <si>
+    <t>RUA SANTA EFIGÊNIA</t>
+  </si>
+  <si>
+    <t>CONJUNTO GUARANI</t>
+  </si>
+  <si>
+    <t>3624-2735</t>
+  </si>
+  <si>
+    <t>RUA SANTA CLARA</t>
+  </si>
+  <si>
+    <t>3622-6376</t>
+  </si>
+  <si>
+    <t>RUA FRANCISCO JÚNIOR</t>
+  </si>
+  <si>
+    <t>3622-6694</t>
+  </si>
+  <si>
+    <t>RUA CARLOS GOMES</t>
+  </si>
+  <si>
+    <t>PRAÇA ANCHIETA</t>
+  </si>
+  <si>
+    <t>2020-6311</t>
+  </si>
+  <si>
+    <t>AVENIDA BRUNO TOLENTINO</t>
+  </si>
+  <si>
+    <t>CONJUNTO SONHO MEU</t>
+  </si>
+  <si>
+    <t>3624-9326</t>
+  </si>
+  <si>
+    <t>RUA DAS ORQUÍDEAS</t>
+  </si>
+  <si>
+    <t>PARQUE DAS LARANJEIRAS</t>
+  </si>
+  <si>
+    <t>SME - UMUARAMA</t>
+  </si>
+  <si>
+    <t>2030-4050</t>
+  </si>
+  <si>
+    <t>87503-650</t>
+  </si>
+  <si>
+    <t>CENTRO INDUSTRIAL DIVERSIFICADO DE UMUARAMA</t>
+  </si>
+  <si>
+    <t>AV. PADRE JOSÉ GERMANO NETO JÚNIOR - CENTRO IND. DIFERS. DE UMUARAMA</t>
+  </si>
+  <si>
+    <t>AV. DOUTOR JÚLIO CÉSAR JARROS</t>
+  </si>
+  <si>
+    <t>RUA JOSÉ TEIXEIRA D`VILA</t>
+  </si>
+  <si>
+    <t>ZONA I</t>
+  </si>
+  <si>
+    <t>3622-2462</t>
   </si>
 </sst>
 </file>
@@ -1156,12 +1420,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA9257-B4D5-4E5C-82C2-6ED4623D6343}">
-  <dimension ref="A1:AE192"/>
+  <dimension ref="A1:AE191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1242,7 +1506,7 @@
     </row>
     <row r="2" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
@@ -1254,22 +1518,28 @@
         <v>16</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+        <v>235</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="19">
+        <v>3729</v>
+      </c>
       <c r="H2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="22" t="s">
+        <v>234</v>
+      </c>
       <c r="J2" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M2" s="25" t="s">
         <v>1</v>
@@ -1295,7 +1565,7 @@
     </row>
     <row r="3" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>17</v>
@@ -1307,22 +1577,28 @@
         <v>18</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+        <v>224</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="19">
+        <v>1426</v>
+      </c>
       <c r="H3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="19" t="s">
+        <v>226</v>
+      </c>
       <c r="J3" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>1</v>
@@ -1348,7 +1624,7 @@
     </row>
     <row r="4" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>19</v>
@@ -1360,22 +1636,28 @@
         <v>20</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+        <v>221</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="19">
+        <v>1298</v>
+      </c>
       <c r="H4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="19" t="s">
+        <v>223</v>
+      </c>
       <c r="J4" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M4" s="25" t="s">
         <v>1</v>
@@ -1401,7 +1683,7 @@
     </row>
     <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>21</v>
@@ -1413,22 +1695,28 @@
         <v>22</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="19"/>
+        <v>218</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="H5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="19" t="s">
+        <v>220</v>
+      </c>
       <c r="J5" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M5" s="25" t="s">
         <v>1</v>
@@ -1454,7 +1742,7 @@
     </row>
     <row r="6" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>23</v>
@@ -1466,22 +1754,28 @@
         <v>24</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="19"/>
+        <v>216</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="H6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="J6" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M6" s="25" t="s">
         <v>1</v>
@@ -1507,7 +1801,7 @@
     </row>
     <row r="7" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>25</v>
@@ -1519,22 +1813,28 @@
         <v>26</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="19"/>
+        <v>214</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="19">
+        <v>2413</v>
+      </c>
       <c r="H7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="22" t="s">
+        <v>153</v>
+      </c>
       <c r="J7" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M7" s="25" t="s">
         <v>1</v>
@@ -1560,7 +1860,7 @@
     </row>
     <row r="8" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>27</v>
@@ -1572,22 +1872,28 @@
         <v>28</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="19"/>
+        <v>211</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="H8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="22" t="s">
+        <v>213</v>
+      </c>
       <c r="J8" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M8" s="25" t="s">
         <v>1</v>
@@ -1613,7 +1919,7 @@
     </row>
     <row r="9" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>29</v>
@@ -1625,22 +1931,28 @@
         <v>30</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="19"/>
+        <v>208</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2835</v>
+      </c>
       <c r="H9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="22" t="s">
+        <v>210</v>
+      </c>
       <c r="J9" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M9" s="25" t="s">
         <v>1</v>
@@ -1666,7 +1978,7 @@
     </row>
     <row r="10" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>31</v>
@@ -1678,22 +1990,28 @@
         <v>32</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="19"/>
+        <v>205</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="H10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="19"/>
+      <c r="I10" s="19" t="s">
+        <v>207</v>
+      </c>
       <c r="J10" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M10" s="25" t="s">
         <v>1</v>
@@ -1719,7 +2037,7 @@
     </row>
     <row r="11" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>33</v>
@@ -1731,22 +2049,28 @@
         <v>34</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="19"/>
+        <v>202</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="19">
+        <v>784</v>
+      </c>
       <c r="H11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="22" t="s">
+        <v>204</v>
+      </c>
       <c r="J11" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M11" s="25" t="s">
         <v>1</v>
@@ -1772,7 +2096,7 @@
     </row>
     <row r="12" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>35</v>
@@ -1784,22 +2108,28 @@
         <v>36</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="19"/>
+        <v>199</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="19">
+        <v>5757</v>
+      </c>
       <c r="H12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="22" t="s">
+        <v>201</v>
+      </c>
       <c r="J12" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M12" s="25" t="s">
         <v>1</v>
@@ -1825,7 +2155,7 @@
     </row>
     <row r="13" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>37</v>
@@ -1837,22 +2167,28 @@
         <v>38</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="19"/>
+        <v>196</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1873</v>
+      </c>
       <c r="H13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="22" t="s">
+        <v>198</v>
+      </c>
       <c r="J13" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M13" s="25" t="s">
         <v>1</v>
@@ -1878,7 +2214,7 @@
     </row>
     <row r="14" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>39</v>
@@ -1890,22 +2226,28 @@
         <v>40</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+        <v>193</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="19">
+        <v>2455</v>
+      </c>
       <c r="H14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="22" t="s">
+        <v>195</v>
+      </c>
       <c r="J14" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M14" s="25" t="s">
         <v>1</v>
@@ -1931,7 +2273,7 @@
     </row>
     <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>41</v>
@@ -1943,22 +2285,28 @@
         <v>42</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="19"/>
+        <v>192</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" s="19">
+        <v>2488</v>
+      </c>
       <c r="H15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="22" t="s">
+        <v>191</v>
+      </c>
       <c r="J15" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M15" s="25" t="s">
         <v>1</v>
@@ -1984,7 +2332,7 @@
     </row>
     <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>43</v>
@@ -1996,22 +2344,28 @@
         <v>44</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="19"/>
+        <v>189</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="H16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="22" t="s">
+        <v>150</v>
+      </c>
       <c r="J16" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M16" s="25" t="s">
         <v>1</v>
@@ -2037,7 +2391,7 @@
     </row>
     <row r="17" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>45</v>
@@ -2049,22 +2403,28 @@
         <v>46</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="19"/>
+        <v>186</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="19">
+        <v>2063</v>
+      </c>
       <c r="H17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="22" t="s">
+        <v>188</v>
+      </c>
       <c r="J17" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>1</v>
@@ -2090,7 +2450,7 @@
     </row>
     <row r="18" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>47</v>
@@ -2102,22 +2462,28 @@
         <v>48</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="19"/>
+        <v>183</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="19">
+        <v>286</v>
+      </c>
       <c r="H18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="22"/>
+      <c r="I18" s="22" t="s">
+        <v>185</v>
+      </c>
       <c r="J18" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M18" s="25" t="s">
         <v>1</v>
@@ -2143,7 +2509,7 @@
     </row>
     <row r="19" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>49</v>
@@ -2155,22 +2521,28 @@
         <v>50</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="19"/>
+        <v>181</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1393</v>
+      </c>
       <c r="H19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="22"/>
+      <c r="I19" s="22" t="s">
+        <v>182</v>
+      </c>
       <c r="J19" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>1</v>
@@ -2196,7 +2568,7 @@
     </row>
     <row r="20" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>51</v>
@@ -2208,22 +2580,28 @@
         <v>52</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="19"/>
+        <v>178</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="19">
+        <v>3206</v>
+      </c>
       <c r="H20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="22"/>
+      <c r="I20" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="J20" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M20" s="25" t="s">
         <v>1</v>
@@ -2249,7 +2627,7 @@
     </row>
     <row r="21" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>53</v>
@@ -2261,22 +2639,28 @@
         <v>54</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="19"/>
+        <v>175</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="H21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="22"/>
+      <c r="I21" s="22" t="s">
+        <v>177</v>
+      </c>
       <c r="J21" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M21" s="25" t="s">
         <v>1</v>
@@ -2302,7 +2686,7 @@
     </row>
     <row r="22" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>55</v>
@@ -2314,22 +2698,28 @@
         <v>56</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="19"/>
+        <v>169</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1471</v>
+      </c>
       <c r="H22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="22"/>
+      <c r="I22" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="J22" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M22" s="25" t="s">
         <v>1</v>
@@ -2355,7 +2745,7 @@
     </row>
     <row r="23" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>57</v>
@@ -2367,22 +2757,28 @@
         <v>58</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="19"/>
+        <v>163</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="19">
+        <v>723</v>
+      </c>
       <c r="H23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="22"/>
+      <c r="I23" s="22" t="s">
+        <v>165</v>
+      </c>
       <c r="J23" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M23" s="25" t="s">
         <v>1</v>
@@ -2408,7 +2804,7 @@
     </row>
     <row r="24" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>59</v>
@@ -2420,22 +2816,28 @@
         <v>60</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="19"/>
+        <v>154</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="H24" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="22"/>
+      <c r="I24" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="J24" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M24" s="25" t="s">
         <v>1</v>
@@ -2461,7 +2863,7 @@
     </row>
     <row r="25" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>61</v>
@@ -2473,22 +2875,28 @@
         <v>62</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="19"/>
+        <v>151</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="19">
+        <v>2273</v>
+      </c>
       <c r="H25" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="22"/>
+      <c r="I25" s="22" t="s">
+        <v>153</v>
+      </c>
       <c r="J25" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M25" s="25" t="s">
         <v>1</v>
@@ -2514,7 +2922,7 @@
     </row>
     <row r="26" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>63</v>
@@ -2526,28 +2934,28 @@
         <v>64</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M26" s="25" t="s">
         <v>1</v>
@@ -2573,7 +2981,7 @@
     </row>
     <row r="27" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>65</v>
@@ -2585,10 +2993,10 @@
         <v>66</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G27" s="19">
         <v>2084</v>
@@ -2597,16 +3005,16 @@
         <v>14</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M27" s="25" t="s">
         <v>1</v>
@@ -2632,7 +3040,7 @@
     </row>
     <row r="28" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>67</v>
@@ -2644,10 +3052,10 @@
         <v>68</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G28" s="19">
         <v>4981</v>
@@ -2656,16 +3064,16 @@
         <v>14</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M28" s="25" t="s">
         <v>1</v>
@@ -2691,7 +3099,7 @@
     </row>
     <row r="29" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>69</v>
@@ -2703,10 +3111,10 @@
         <v>70</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G29" s="19">
         <v>1986</v>
@@ -2715,16 +3123,16 @@
         <v>14</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M29" s="25" t="s">
         <v>1</v>
@@ -2750,7 +3158,7 @@
     </row>
     <row r="30" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>71</v>
@@ -2762,28 +3170,28 @@
         <v>72</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M30" s="25" t="s">
         <v>1</v>
@@ -2809,7 +3217,7 @@
     </row>
     <row r="31" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>73</v>
@@ -2821,10 +3229,10 @@
         <v>74</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G31" s="19">
         <v>45</v>
@@ -2833,16 +3241,16 @@
         <v>14</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M31" s="25" t="s">
         <v>1</v>
@@ -2868,7 +3276,7 @@
     </row>
     <row r="32" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>75</v>
@@ -2880,28 +3288,28 @@
         <v>76</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="19" t="s">
-        <v>111</v>
-      </c>
       <c r="K32" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M32" s="25" t="s">
         <v>1</v>
@@ -2927,7 +3335,7 @@
     </row>
     <row r="33" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>77</v>
@@ -2939,22 +3347,28 @@
         <v>78</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="19"/>
+        <v>160</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="19">
+        <v>3373</v>
+      </c>
       <c r="H33" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="22"/>
+      <c r="I33" s="22" t="s">
+        <v>162</v>
+      </c>
       <c r="J33" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M33" s="25" t="s">
         <v>1</v>
@@ -2980,7 +3394,7 @@
     </row>
     <row r="34" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>79</v>
@@ -2992,10 +3406,10 @@
         <v>80</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G34" s="19">
         <v>3605</v>
@@ -3004,16 +3418,16 @@
         <v>14</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M34" s="25" t="s">
         <v>1</v>
@@ -3039,7 +3453,7 @@
     </row>
     <row r="35" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>81</v>
@@ -3051,10 +3465,10 @@
         <v>82</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G35" s="19">
         <v>6085</v>
@@ -3063,16 +3477,16 @@
         <v>14</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M35" s="25" t="s">
         <v>1</v>
@@ -3098,7 +3512,7 @@
     </row>
     <row r="36" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>83</v>
@@ -3110,28 +3524,28 @@
         <v>84</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M36" s="25" t="s">
         <v>1</v>
@@ -3157,7 +3571,7 @@
     </row>
     <row r="37" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>85</v>
@@ -3169,10 +3583,10 @@
         <v>86</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G37" s="19">
         <v>2480</v>
@@ -3181,16 +3595,16 @@
         <v>14</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M37" s="25" t="s">
         <v>1</v>
@@ -3216,34 +3630,40 @@
     </row>
     <row r="38" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="19"/>
+        <v>228</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G38" s="19">
+        <v>3052</v>
+      </c>
       <c r="H38" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="22"/>
+        <v>230</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>168</v>
+      </c>
       <c r="J38" s="19" t="s">
-        <v>111</v>
+        <v>229</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M38" s="25" t="s">
         <v>1</v>
@@ -3253,7 +3673,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
+      <c r="S38" s="7"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
@@ -3269,34 +3689,40 @@
     </row>
     <row r="39" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B39" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="17">
+        <v>7</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="17">
-        <v>8</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>90</v>
-      </c>
       <c r="E39" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="19"/>
+        <v>166</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="19">
+        <v>3435</v>
+      </c>
       <c r="H39" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="22"/>
+      <c r="I39" s="22" t="s">
+        <v>168</v>
+      </c>
       <c r="J39" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M39" s="25" t="s">
         <v>1</v>
@@ -3304,14 +3730,14 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
+      <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
+      <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
+      <c r="X39" s="7"/>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
@@ -3322,34 +3748,40 @@
     </row>
     <row r="40" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B40" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="17">
+        <v>6</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="17">
-        <v>7</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>92</v>
-      </c>
       <c r="E40" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="19"/>
+        <v>157</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="19">
+        <v>2544</v>
+      </c>
       <c r="H40" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="22"/>
+      <c r="I40" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="J40" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K40" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M40" s="25" t="s">
         <v>1</v>
@@ -3357,14 +3789,14 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
-      <c r="Q40" s="7"/>
+      <c r="Q40" s="5"/>
       <c r="R40" s="7"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
-      <c r="X40" s="7"/>
+      <c r="X40" s="5"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
@@ -3375,34 +3807,40 @@
     </row>
     <row r="41" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B41" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="17">
+        <v>5</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="17">
-        <v>6</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>94</v>
-      </c>
       <c r="E41" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="19"/>
+        <v>148</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="19">
+        <v>680</v>
+      </c>
       <c r="H41" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="26"/>
+      <c r="I41" s="26" t="s">
+        <v>150</v>
+      </c>
       <c r="J41" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M41" s="25" t="s">
         <v>1</v>
@@ -3428,34 +3866,40 @@
     </row>
     <row r="42" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B42" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="17">
+        <v>4</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="17">
-        <v>5</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>96</v>
-      </c>
       <c r="E42" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="19"/>
+        <v>147</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="H42" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="26"/>
+      <c r="I42" s="26" t="s">
+        <v>146</v>
+      </c>
       <c r="J42" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M42" s="25" t="s">
         <v>1</v>
@@ -3481,34 +3925,40 @@
     </row>
     <row r="43" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B43" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="17">
+        <v>3</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="17">
-        <v>4</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="E43" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="H43" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="26"/>
+      <c r="I43" s="26" t="s">
+        <v>135</v>
+      </c>
       <c r="J43" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K43" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M43" s="25" t="s">
         <v>1</v>
@@ -3534,40 +3984,40 @@
     </row>
     <row r="44" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="17">
+        <v>2</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="17">
-        <v>3</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="E44" s="22" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="26" t="s">
-        <v>138</v>
+      <c r="I44" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K44" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L44" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M44" s="25" t="s">
         <v>1</v>
@@ -3577,7 +4027,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
+      <c r="S44" s="7"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
@@ -3593,49 +4043,55 @@
     </row>
     <row r="45" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B45" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="17">
-        <v>2</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>102</v>
-      </c>
       <c r="E45" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1305</v>
+      </c>
       <c r="H45" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="19"/>
+      <c r="I45" s="26" t="s">
+        <v>111</v>
+      </c>
       <c r="J45" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K45" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L45" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M45" s="25" t="s">
         <v>1</v>
       </c>
       <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
@@ -3645,63 +4101,12 @@
       <c r="AE45" s="6"/>
     </row>
     <row r="46" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="17">
-        <v>1</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="G46" s="19">
-        <v>1305</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="L46" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="M46" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="N46" s="5"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
-      <c r="AE46" s="6"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="8"/>
@@ -4863,14 +5268,6 @@
       <c r="F191" s="14"/>
       <c r="G191" s="14"/>
     </row>
-    <row r="192" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B192" s="8"/>
-      <c r="C192" s="14"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/core/utils/cadenderecoUMUARAMA.xlsx
+++ b/core/utils/cadenderecoUMUARAMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE40CBB8-02B5-4235-9301-9493588C4D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAD3552-B215-4D36-BD6F-B18EDEAF5EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -237,9 +237,6 @@
     <t>2905</t>
   </si>
   <si>
-    <t>ESCOLA MUNICIPAL EVENGÉLICA</t>
-  </si>
-  <si>
     <t>2904</t>
   </si>
   <si>
@@ -733,6 +730,9 @@
   </si>
   <si>
     <t>3622-2462</t>
+  </si>
+  <si>
+    <t>ESCOLA MUNICIPAL EVANGÉLICA</t>
   </si>
 </sst>
 </file>
@@ -1423,9 +1423,9 @@
   <dimension ref="A1:AE191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="2" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
@@ -1518,10 +1518,10 @@
         <v>16</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" s="19">
         <v>3729</v>
@@ -1530,16 +1530,16 @@
         <v>14</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K2" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M2" s="25" t="s">
         <v>1</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="3" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>17</v>
@@ -1577,10 +1577,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>225</v>
       </c>
       <c r="G3" s="19">
         <v>1426</v>
@@ -1589,16 +1589,16 @@
         <v>14</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>1</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="4" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>19</v>
@@ -1636,10 +1636,10 @@
         <v>20</v>
       </c>
       <c r="E4" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>222</v>
       </c>
       <c r="G4" s="19">
         <v>1298</v>
@@ -1648,16 +1648,16 @@
         <v>14</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K4" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M4" s="25" t="s">
         <v>1</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>21</v>
@@ -1695,28 +1695,28 @@
         <v>22</v>
       </c>
       <c r="E5" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>219</v>
-      </c>
       <c r="G5" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K5" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="25" t="s">
         <v>1</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="6" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>23</v>
@@ -1754,28 +1754,28 @@
         <v>24</v>
       </c>
       <c r="E6" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>217</v>
-      </c>
       <c r="G6" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M6" s="25" t="s">
         <v>1</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="7" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>25</v>
@@ -1813,10 +1813,10 @@
         <v>26</v>
       </c>
       <c r="E7" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>214</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>215</v>
       </c>
       <c r="G7" s="19">
         <v>2413</v>
@@ -1825,16 +1825,16 @@
         <v>14</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K7" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M7" s="25" t="s">
         <v>1</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="8" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>27</v>
@@ -1872,28 +1872,28 @@
         <v>28</v>
       </c>
       <c r="E8" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>212</v>
-      </c>
       <c r="G8" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K8" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M8" s="25" t="s">
         <v>1</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="9" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>29</v>
@@ -1931,10 +1931,10 @@
         <v>30</v>
       </c>
       <c r="E9" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>208</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>209</v>
       </c>
       <c r="G9" s="19">
         <v>2835</v>
@@ -1943,16 +1943,16 @@
         <v>14</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K9" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M9" s="25" t="s">
         <v>1</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="10" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>31</v>
@@ -1990,28 +1990,28 @@
         <v>32</v>
       </c>
       <c r="E10" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>206</v>
-      </c>
       <c r="G10" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K10" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M10" s="25" t="s">
         <v>1</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="11" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>33</v>
@@ -2049,10 +2049,10 @@
         <v>34</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>202</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>203</v>
       </c>
       <c r="G11" s="19">
         <v>784</v>
@@ -2061,16 +2061,16 @@
         <v>14</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K11" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M11" s="25" t="s">
         <v>1</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="12" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>35</v>
@@ -2108,10 +2108,10 @@
         <v>36</v>
       </c>
       <c r="E12" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="G12" s="19">
         <v>5757</v>
@@ -2120,16 +2120,16 @@
         <v>14</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M12" s="25" t="s">
         <v>1</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="13" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>37</v>
@@ -2167,10 +2167,10 @@
         <v>38</v>
       </c>
       <c r="E13" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="G13" s="19">
         <v>1873</v>
@@ -2179,16 +2179,16 @@
         <v>14</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K13" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M13" s="25" t="s">
         <v>1</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="14" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>39</v>
@@ -2226,10 +2226,10 @@
         <v>40</v>
       </c>
       <c r="E14" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>194</v>
       </c>
       <c r="G14" s="19">
         <v>2455</v>
@@ -2238,16 +2238,16 @@
         <v>14</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K14" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="25" t="s">
         <v>1</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>41</v>
@@ -2285,10 +2285,10 @@
         <v>42</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G15" s="19">
         <v>2488</v>
@@ -2297,16 +2297,16 @@
         <v>14</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K15" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="25" t="s">
         <v>1</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>43</v>
@@ -2344,28 +2344,28 @@
         <v>44</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K16" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="25" t="s">
         <v>1</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="17" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>45</v>
@@ -2403,10 +2403,10 @@
         <v>46</v>
       </c>
       <c r="E17" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>187</v>
       </c>
       <c r="G17" s="19">
         <v>2063</v>
@@ -2415,16 +2415,16 @@
         <v>14</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K17" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>1</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="18" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>47</v>
@@ -2462,10 +2462,10 @@
         <v>48</v>
       </c>
       <c r="E18" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>183</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>184</v>
       </c>
       <c r="G18" s="19">
         <v>286</v>
@@ -2474,16 +2474,16 @@
         <v>14</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K18" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M18" s="25" t="s">
         <v>1</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="19" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>49</v>
@@ -2521,10 +2521,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="19">
         <v>1393</v>
@@ -2533,16 +2533,16 @@
         <v>14</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K19" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>1</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="20" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>51</v>
@@ -2580,10 +2580,10 @@
         <v>52</v>
       </c>
       <c r="E20" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>179</v>
       </c>
       <c r="G20" s="19">
         <v>3206</v>
@@ -2592,16 +2592,16 @@
         <v>14</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K20" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M20" s="25" t="s">
         <v>1</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="21" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>53</v>
@@ -2639,28 +2639,28 @@
         <v>54</v>
       </c>
       <c r="E21" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>176</v>
-      </c>
       <c r="G21" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K21" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M21" s="25" t="s">
         <v>1</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="22" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>55</v>
@@ -2698,10 +2698,10 @@
         <v>56</v>
       </c>
       <c r="E22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>169</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>170</v>
       </c>
       <c r="G22" s="19">
         <v>1471</v>
@@ -2710,16 +2710,16 @@
         <v>14</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K22" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M22" s="25" t="s">
         <v>1</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="23" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>57</v>
@@ -2757,10 +2757,10 @@
         <v>58</v>
       </c>
       <c r="E23" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>163</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>164</v>
       </c>
       <c r="G23" s="19">
         <v>723</v>
@@ -2769,16 +2769,16 @@
         <v>14</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K23" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M23" s="25" t="s">
         <v>1</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="24" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>59</v>
@@ -2816,28 +2816,28 @@
         <v>60</v>
       </c>
       <c r="E24" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>155</v>
-      </c>
       <c r="G24" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K24" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M24" s="25" t="s">
         <v>1</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="25" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>61</v>
@@ -2875,10 +2875,10 @@
         <v>62</v>
       </c>
       <c r="E25" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>151</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>152</v>
       </c>
       <c r="G25" s="19">
         <v>2273</v>
@@ -2887,16 +2887,16 @@
         <v>14</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K25" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M25" s="25" t="s">
         <v>1</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="26" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>63</v>
@@ -2934,28 +2934,28 @@
         <v>64</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K26" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M26" s="25" t="s">
         <v>1</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="27" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>65</v>
@@ -2993,10 +2993,10 @@
         <v>66</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G27" s="19">
         <v>2084</v>
@@ -3005,16 +3005,16 @@
         <v>14</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K27" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L27" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M27" s="25" t="s">
         <v>1</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="28" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>67</v>
@@ -3052,10 +3052,10 @@
         <v>68</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="19">
         <v>4981</v>
@@ -3064,16 +3064,16 @@
         <v>14</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K28" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M28" s="25" t="s">
         <v>1</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="29" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>69</v>
@@ -3108,13 +3108,13 @@
         <v>18</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G29" s="19">
         <v>1986</v>
@@ -3123,16 +3123,16 @@
         <v>14</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K29" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L29" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M29" s="25" t="s">
         <v>1</v>
@@ -3158,40 +3158,40 @@
     </row>
     <row r="30" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="17">
         <v>17</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K30" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L30" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M30" s="25" t="s">
         <v>1</v>
@@ -3217,22 +3217,22 @@
     </row>
     <row r="31" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="17">
         <v>16</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G31" s="19">
         <v>45</v>
@@ -3241,16 +3241,16 @@
         <v>14</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K31" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L31" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M31" s="25" t="s">
         <v>1</v>
@@ -3276,40 +3276,40 @@
     </row>
     <row r="32" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="17">
         <v>15</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>107</v>
-      </c>
       <c r="G32" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K32" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L32" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M32" s="25" t="s">
         <v>1</v>
@@ -3335,22 +3335,22 @@
     </row>
     <row r="33" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="17">
         <v>14</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="G33" s="19">
         <v>3373</v>
@@ -3359,16 +3359,16 @@
         <v>14</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K33" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L33" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L33" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M33" s="25" t="s">
         <v>1</v>
@@ -3394,22 +3394,22 @@
     </row>
     <row r="34" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="17">
         <v>13</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G34" s="19">
         <v>3605</v>
@@ -3418,16 +3418,16 @@
         <v>14</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K34" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L34" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M34" s="25" t="s">
         <v>1</v>
@@ -3453,22 +3453,22 @@
     </row>
     <row r="35" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="17">
         <v>12</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G35" s="19">
         <v>6085</v>
@@ -3477,16 +3477,16 @@
         <v>14</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K35" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L35" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L35" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M35" s="25" t="s">
         <v>1</v>
@@ -3512,40 +3512,40 @@
     </row>
     <row r="36" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="17">
         <v>11</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K36" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L36" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L36" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M36" s="25" t="s">
         <v>1</v>
@@ -3571,22 +3571,22 @@
     </row>
     <row r="37" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="17">
         <v>10</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G37" s="19">
         <v>2480</v>
@@ -3595,16 +3595,16 @@
         <v>14</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K37" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L37" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L37" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M37" s="25" t="s">
         <v>1</v>
@@ -3630,40 +3630,40 @@
     </row>
     <row r="38" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="17">
         <v>8</v>
       </c>
       <c r="D38" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="E38" s="22" t="s">
-        <v>228</v>
-      </c>
       <c r="F38" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G38" s="19">
         <v>3052</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K38" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L38" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L38" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M38" s="25" t="s">
         <v>1</v>
@@ -3689,22 +3689,22 @@
     </row>
     <row r="39" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="17">
         <v>7</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>166</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>167</v>
       </c>
       <c r="G39" s="19">
         <v>3435</v>
@@ -3713,16 +3713,16 @@
         <v>14</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K39" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L39" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L39" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M39" s="25" t="s">
         <v>1</v>
@@ -3748,22 +3748,22 @@
     </row>
     <row r="40" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="17">
         <v>6</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="26" t="s">
         <v>157</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>158</v>
       </c>
       <c r="G40" s="19">
         <v>2544</v>
@@ -3772,16 +3772,16 @@
         <v>14</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K40" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L40" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L40" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M40" s="25" t="s">
         <v>1</v>
@@ -3807,22 +3807,22 @@
     </row>
     <row r="41" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="17">
         <v>5</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="26" t="s">
         <v>148</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>149</v>
       </c>
       <c r="G41" s="19">
         <v>680</v>
@@ -3831,16 +3831,16 @@
         <v>14</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K41" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L41" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L41" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M41" s="25" t="s">
         <v>1</v>
@@ -3866,40 +3866,40 @@
     </row>
     <row r="42" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="17">
         <v>4</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K42" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L42" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L42" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M42" s="25" t="s">
         <v>1</v>
@@ -3925,40 +3925,40 @@
     </row>
     <row r="43" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="17">
         <v>3</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K43" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L43" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L43" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M43" s="25" t="s">
         <v>1</v>
@@ -3984,40 +3984,40 @@
     </row>
     <row r="44" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="17">
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="F44" s="26" t="s">
-        <v>173</v>
-      </c>
       <c r="G44" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K44" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L44" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M44" s="25" t="s">
         <v>1</v>
@@ -4043,22 +4043,22 @@
     </row>
     <row r="45" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" s="17">
         <v>1</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G45" s="19">
         <v>1305</v>
@@ -4067,16 +4067,16 @@
         <v>14</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K45" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L45" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="L45" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="M45" s="25" t="s">
         <v>1</v>
